--- a/data/trans_orig/P14A23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A23-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2867454A-EDB7-4AB1-95D2-17496B88B66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE1DD06-A9EB-4FFE-BCE3-DAC3D50F8E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA1624DE-9FC8-4191-98B3-57D0F5B0F9F1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4F216DB-A4F3-4E39-BA94-0EF6448272DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="254">
   <si>
     <t>Población que recibe medicación o terapia por depresión o ansiedad en 2012 (Tasa respuesta: 7,79%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>92,57%</t>
   </si>
   <si>
-    <t>62,06%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,16 +93,16 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>88,81%</t>
+    <t>89,95%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>7,43%</t>
@@ -111,22 +111,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>37,94%</t>
+    <t>38,12%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>11,19%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>88,46%</t>
   </si>
   <si>
-    <t>64,57%</t>
+    <t>69,11%</t>
   </si>
   <si>
     <t>89,56%</t>
@@ -147,28 +147,28 @@
     <t>76,16%</t>
   </si>
   <si>
-    <t>97,42%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>35,43%</t>
+    <t>30,89%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,6%</t>
   </si>
   <si>
     <t>23,84%</t>
@@ -177,10 +177,10 @@
     <t>10,77%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -189,55 +189,55 @@
     <t>87,03%</t>
   </si>
   <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -246,49 +246,55 @@
     <t>68,39%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>88,36%</t>
   </si>
   <si>
-    <t>78,11%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>21,89%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -297,43 +303,43 @@
     <t>85,77%</t>
   </si>
   <si>
-    <t>60,7%</t>
+    <t>61,57%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>81,24%</t>
+    <t>80,93%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>39,3%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>18,76%</t>
+    <t>19,07%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -342,55 +348,55 @@
     <t>85,43%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -399,109 +405,109 @@
     <t>84,97%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -513,7 +519,7 @@
     <t>91,58%</t>
   </si>
   <si>
-    <t>61,58%</t>
+    <t>63,29%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -522,13 +528,13 @@
     <t>97,86%</t>
   </si>
   <si>
-    <t>89,28%</t>
+    <t>89,45%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>38,42%</t>
+    <t>36,71%</t>
   </si>
   <si>
     <t>0%</t>
@@ -540,7 +546,7 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>10,72%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -570,7 +576,7 @@
     <t>95,63%</t>
   </si>
   <si>
-    <t>81,62%</t>
+    <t>79,47%</t>
   </si>
   <si>
     <t>38,91%</t>
@@ -582,7 +588,7 @@
     <t>4,37%</t>
   </si>
   <si>
-    <t>18,38%</t>
+    <t>20,53%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -609,13 +615,13 @@
     <t>95,77%</t>
   </si>
   <si>
-    <t>79,11%</t>
+    <t>78,81%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>85,03%</t>
+    <t>84,87%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -624,13 +630,13 @@
     <t>4,23%</t>
   </si>
   <si>
-    <t>20,89%</t>
+    <t>21,19%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>14,97%</t>
+    <t>15,13%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -639,13 +645,13 @@
     <t>97,15%</t>
   </si>
   <si>
-    <t>86,45%</t>
+    <t>84,04%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>89,02%</t>
+    <t>88,67%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -654,97 +660,97 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>13,55%</t>
+    <t>15,96%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>10,98%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>53,12%</t>
+    <t>66,87%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>46,88%</t>
+    <t>33,13%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>93,66%</t>
+    <t>93,56%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>6,34%</t>
+    <t>6,44%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>5,38%</t>
+    <t>6,12%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>89,58%</t>
+    <t>89,9%</t>
   </si>
   <si>
     <t>98,95%</t>
@@ -753,19 +759,19 @@
     <t>96,54%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>4,21%</t>
@@ -774,25 +780,25 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>10,42%</t>
+    <t>10,1%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B918E01-5DA7-4B2F-810C-910B98799C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFCB06-0FA2-4F32-A877-EFBDD2CD3C9C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1966,7 +1972,7 @@
         <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>3334</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1996,13 +2002,13 @@
         <v>3082</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2011,13 +2017,13 @@
         <v>6416</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2079,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2085,10 +2091,10 @@
         <v>12136</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2100,10 +2106,10 @@
         <v>34486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -2115,13 +2121,13 @@
         <v>46622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2142,13 @@
         <v>2013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2151,13 +2157,13 @@
         <v>2266</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2166,13 +2172,13 @@
         <v>4279</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,7 +2234,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2240,13 +2246,13 @@
         <v>28569</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -2255,13 +2261,13 @@
         <v>56868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -2270,13 +2276,13 @@
         <v>85435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2297,13 @@
         <v>4870</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2306,13 +2312,13 @@
         <v>4908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2321,13 +2327,13 @@
         <v>9779</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,7 +2389,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2395,13 +2401,13 @@
         <v>20054</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -2410,13 +2416,13 @@
         <v>64220</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -2425,13 +2431,13 @@
         <v>84274</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2452,13 @@
         <v>3547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2461,13 +2467,13 @@
         <v>5340</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -2476,13 +2482,13 @@
         <v>8887</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2556,13 @@
         <v>121422</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>350</v>
@@ -2565,13 +2571,13 @@
         <v>371981</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M28" s="7">
         <v>459</v>
@@ -2580,13 +2586,13 @@
         <v>493401</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2607,13 @@
         <v>20246</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -2616,13 +2622,13 @@
         <v>31478</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -2631,13 +2637,13 @@
         <v>51725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2699,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2717,7 +2723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3EB6A9-B381-4553-99F7-9D1495E7C525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4257E9-AC43-4B6A-9749-EC9C112E4356}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2734,7 +2740,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2841,10 +2847,10 @@
         <v>10928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -2859,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>30</v>
@@ -2871,10 +2877,10 @@
         <v>45898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2892,13 +2898,13 @@
         <v>1004</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2910,10 +2916,10 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2922,13 +2928,13 @@
         <v>1004</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,7 +3005,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -3014,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>30</v>
@@ -3029,7 +3035,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>30</v>
@@ -3050,10 +3056,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3065,10 +3071,10 @@
         <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3080,10 +3086,10 @@
         <v>23</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,7 +3157,7 @@
         <v>1965</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>23</v>
@@ -3169,7 +3175,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -3181,10 +3187,10 @@
         <v>27392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3202,7 +3208,7 @@
         <v>1252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
@@ -3220,10 +3226,10 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3232,13 +3238,13 @@
         <v>1252</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3315,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -3324,7 +3330,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>30</v>
@@ -3339,7 +3345,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>30</v>
@@ -3360,10 +3366,10 @@
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3375,10 +3381,10 @@
         <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3390,10 +3396,10 @@
         <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,7 +3470,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>30</v>
@@ -3476,10 +3482,10 @@
         <v>23802</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3491,10 +3497,10 @@
         <v>33395</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3515,10 +3521,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3527,13 +3533,13 @@
         <v>1053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3542,13 +3548,13 @@
         <v>1053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3610,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3619,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>30</v>
@@ -3631,10 +3637,10 @@
         <v>31436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3646,10 +3652,10 @@
         <v>37171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3670,10 +3676,10 @@
         <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3682,13 +3688,13 @@
         <v>921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3697,13 +3703,13 @@
         <v>921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +3765,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3771,10 +3777,10 @@
         <v>11589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3786,13 +3792,13 @@
         <v>48216</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -3801,13 +3807,13 @@
         <v>59805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3828,13 @@
         <v>912</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3837,13 +3843,13 @@
         <v>8468</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3852,13 +3858,13 @@
         <v>9380</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +3920,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3926,10 +3932,10 @@
         <v>28662</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -3941,10 +3947,10 @@
         <v>85362</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -3956,10 +3962,10 @@
         <v>114024</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -3977,13 +3983,13 @@
         <v>905</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3992,13 +3998,13 @@
         <v>1085</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4007,13 +4013,13 @@
         <v>1990</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4087,13 @@
         <v>92624</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>291</v>
@@ -4096,13 +4102,13 @@
         <v>321501</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M28" s="7">
         <v>381</v>
@@ -4111,13 +4117,13 @@
         <v>414125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4138,13 @@
         <v>4073</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4147,13 +4153,13 @@
         <v>11526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -4162,13 +4168,13 @@
         <v>15599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4230,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A23-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE1DD06-A9EB-4FFE-BCE3-DAC3D50F8E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02034DF4-80B6-4D53-BA1B-993798E2B02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4F216DB-A4F3-4E39-BA94-0EF6448272DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56D15E12-E34F-4F24-96C1-3D462FCBDD14}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
     <t>92,57%</t>
   </si>
   <si>
-    <t>61,88%</t>
+    <t>60,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,13 +93,13 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>89,95%</t>
+    <t>88,83%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,58%</t>
+    <t>86,52%</t>
   </si>
   <si>
     <t>98,81%</t>
@@ -111,13 +111,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,12%</t>
+    <t>39,28%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>10,05%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>4,14%</t>
@@ -126,7 +126,7 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>13,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,49 +138,49 @@
     <t>88,46%</t>
   </si>
   <si>
-    <t>69,11%</t>
+    <t>64,02%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>30,89%</t>
+    <t>35,98%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -189,55 +189,55 @@
     <t>87,03%</t>
   </si>
   <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -246,55 +246,55 @@
     <t>68,39%</t>
   </si>
   <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>88,36%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -303,43 +303,43 @@
     <t>85,77%</t>
   </si>
   <si>
-    <t>61,57%</t>
+    <t>57,98%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>80,93%</t>
+    <t>82,47%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>38,43%</t>
+    <t>42,02%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>19,07%</t>
+    <t>17,53%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -348,55 +348,55 @@
     <t>85,43%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -405,121 +405,121 @@
     <t>84,97%</t>
   </si>
   <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2015 (Tasa respuesta: 6,03%)</t>
+    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2016 (Tasa respuesta: 6,03%)</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>63,29%</t>
+    <t>64,94%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -528,13 +528,13 @@
     <t>97,86%</t>
   </si>
   <si>
-    <t>89,45%</t>
+    <t>89,25%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>36,71%</t>
+    <t>35,06%</t>
   </si>
   <si>
     <t>0%</t>
@@ -546,7 +546,7 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>10,55%</t>
+    <t>10,75%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -576,7 +576,7 @@
     <t>95,63%</t>
   </si>
   <si>
-    <t>79,47%</t>
+    <t>73,57%</t>
   </si>
   <si>
     <t>38,91%</t>
@@ -588,7 +588,7 @@
     <t>4,37%</t>
   </si>
   <si>
-    <t>20,53%</t>
+    <t>26,43%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -615,13 +615,13 @@
     <t>95,77%</t>
   </si>
   <si>
-    <t>78,81%</t>
+    <t>79,04%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>84,87%</t>
+    <t>85,07%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -630,13 +630,13 @@
     <t>4,23%</t>
   </si>
   <si>
-    <t>21,19%</t>
+    <t>20,96%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>15,13%</t>
+    <t>14,93%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -645,13 +645,13 @@
     <t>97,15%</t>
   </si>
   <si>
-    <t>84,04%</t>
+    <t>85,25%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>88,67%</t>
+    <t>87,67%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -660,64 +660,64 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>14,75%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>11,33%</t>
+    <t>12,33%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>66,87%</t>
+    <t>67,02%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>33,13%</t>
+    <t>32,98%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>98,75%</t>
@@ -729,10 +729,10 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -744,61 +744,61 @@
     <t>1,71%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>6,03%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFCB06-0FA2-4F32-A877-EFBDD2CD3C9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7663E5C7-8D16-4B44-9B19-C8DE8D2CB13E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2723,7 +2723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4257E9-AC43-4B6A-9749-EC9C112E4356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEF6562-A0B1-4C79-8F29-B39F6CD01382}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
